--- a/Hughes_Panel_Check.xlsx
+++ b/Hughes_Panel_Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthill\Documents\MS-Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Michigan Documents\First Term\Master's Thesis\Code\Working\MS-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F027C3-41B8-4B86-B9C5-74B70880FB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7FD468-AACA-48C7-9F96-AC2EBFFF7E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="17520" xr2:uid="{ABAAE2DD-B30E-47F3-A330-BD0DA80F4267}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{ABAAE2DD-B30E-47F3-A330-BD0DA80F4267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>b:</t>
   </si>
@@ -96,16 +96,21 @@
   </si>
   <si>
     <t>I_NA:</t>
+  </si>
+  <si>
+    <t>Code:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000E+00"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,9 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,20 +478,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C77F23-F59F-4282-8044-DAE29AAA60A2}">
-  <dimension ref="B2:J21"/>
+  <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -495,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -506,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -517,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -528,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -537,13 +545,13 @@
         <v>2.9551363427939328</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C10">
         <f>C2/C3</f>
         <v>54.729505555555562</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -569,136 +577,147 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>0.49256555000000002</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2">
+        <v>0.31787418000000001</v>
+      </c>
+      <c r="D13" s="2">
         <f>9/1000</f>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f>C13*D13</f>
-        <v>4.43308995E-3</v>
-      </c>
-      <c r="F13">
+        <v>2.8608676199999997E-3</v>
+      </c>
+      <c r="F13" s="2">
         <f>D13/2</f>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f>F13*E13</f>
-        <v>1.9948904774999997E-5</v>
-      </c>
-      <c r="H13">
+        <v>1.2873904289999998E-5</v>
+      </c>
+      <c r="H13" s="2">
         <f>F13-$F$18</f>
-        <v>-1.8532201787836305E-2</v>
-      </c>
-      <c r="I13">
+        <v>-2.5370419745638563E-2</v>
+      </c>
+      <c r="I13" s="3">
         <f>(1/12)*C13*(D13^3)</f>
-        <v>2.9923357162499996E-8</v>
-      </c>
-      <c r="J13">
+        <v>1.9310856434999994E-8</v>
+      </c>
+      <c r="J13" s="3">
         <f>I13+(E13*(H13^2))</f>
-        <v>1.5524348660804878E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>1.8607317536406863E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f>100/1000</f>
         <v>0.1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <f>C14*D14</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f>D13+(D14/2)</f>
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f>F14*E14</f>
         <v>4.7200000000000002E-5</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f t="shared" ref="H14:H15" si="0">F14-$F$18</f>
-        <v>3.5967798212163699E-2</v>
-      </c>
-      <c r="I14">
+        <v>2.912958025436144E-2</v>
+      </c>
+      <c r="I14" s="3">
         <f t="shared" ref="I14:I15" si="1">(1/12)*C14*(D14^3)</f>
         <v>6.6666666666666681E-7</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <f t="shared" ref="J14:J15" si="2">I14+(E14*(H14^2))</f>
-        <v>1.7016126732514079E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>1.345492623302894E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f>100/1000</f>
         <v>0.1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <f>6/1000</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f>C15*D15</f>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <f>D13+D14+(D15/2)</f>
         <v>0.112</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <f>F15*E15</f>
         <v>6.7200000000000007E-5</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>8.896779821216369E-2</v>
-      </c>
-      <c r="I15">
+        <v>8.2129580254361442E-2</v>
+      </c>
+      <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>1.8E-9</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <f t="shared" si="2"/>
-        <v>4.7509614712321662E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
+        <v>4.0489607716545581E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18">
         <f>SUM(G13:G15)/SUM(E13:E15)</f>
-        <v>2.3032201787836305E-2</v>
+        <v>2.9870419745638564E-2</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="1">
         <f>SUM(J13:J15)</f>
-        <v>8.0050090105640628E-6</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
+        <v>7.2551851485981386E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
       <c r="J21" s="1"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="2">
+        <f>SUM(E14:E15)</f>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="E23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>